--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_0_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_0_sawtooth_10_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05546149689858382</v>
+        <v>0.02301193295792536</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05546149689858382</v>
+        <v>0.02301193295792536</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.169077995084747</v>
+        <v>7.060592151256505</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.3657125117552642, 12.703868501924758]</t>
+          <t>[0.7273602421680092, 13.393824060345]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.06366607534223356</v>
+        <v>0.0296996412860957</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06366607534223356</v>
+        <v>0.0296996412860957</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.396263401595464</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.880579450138389, 0.08805264694746118]</t>
+          <t>[-2.578684660604235, -0.16352634433100066]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.06457905770143291</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06457905770143291</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="T2" t="n">
-        <v>10.1710770024139</v>
+        <v>9.979234250362786</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.503847291864205, 13.83830671296359]</t>
+          <t>[6.323523951203326, 13.634944549522247]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.279429904688101e-06</v>
+        <v>1.724877121356272e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.279429904688101e-06</v>
+        <v>1.724877121356272e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.695555555555682</v>
+        <v>5.634394394394526</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.3591791791791854</v>
+        <v>0.6719919919920097</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.75029029029055</v>
+        <v>10.59679679679704</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08982468115206743</v>
+        <v>0.2635806660112034</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08982468115206743</v>
+        <v>0.2635806660112034</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.231501944027813</v>
+        <v>4.487445569449578</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.9790988155487348, 13.44210270360436]</t>
+          <t>[-2.6156169502062205, 11.590508089105377]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.08858550801537879</v>
+        <v>0.2097545925011284</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08858550801537879</v>
+        <v>0.2097545925011284</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.849105585896695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.3460005840035434, -0.2012631930227693]</t>
+          <t>[-4.9749745525315845, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02792157300384779</v>
+        <v>0.2397265129616635</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02792157300384779</v>
+        <v>0.2397265129616635</v>
       </c>
       <c r="T3" t="n">
-        <v>10.08331469262751</v>
+        <v>9.551191717273273</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.055979891370521, 14.1106494938845]</t>
+          <t>[5.615703162425007, 13.48668027212154]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.977531691016893e-06</v>
+        <v>1.333959439442367e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>7.977531691016893e-06</v>
+        <v>1.333959439442367e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.234894894895053</v>
+        <v>7.598678678678858</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8209809809809974</v>
+        <v>-5.246706706706822</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.64880880880911</v>
+        <v>20.44406406406454</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1071124710669519</v>
+        <v>0.07826808567034627</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1071124710669519</v>
+        <v>0.07826808567034627</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.45566277022961</v>
+        <v>5.917558968587938</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.388944327254098, 12.300269867713318]</t>
+          <t>[-0.8755729792492701, 12.710690916425147]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.115403708602088</v>
+        <v>0.08615177569021548</v>
       </c>
       <c r="O4" t="n">
-        <v>0.115403708602088</v>
+        <v>0.08615177569021548</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.11326352673908</v>
+        <v>-2.239053022378311</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.484395519538583, 0.25786846606042335]</t>
+          <t>[-4.723395561253121, 0.24528951649649944]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07936160378028645</v>
+        <v>0.07615437789616331</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07936160378028645</v>
+        <v>0.07615437789616331</v>
       </c>
       <c r="T4" t="n">
-        <v>10.25614510321722</v>
+        <v>10.57651371898055</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.666477472109245, 13.845812734325191]</t>
+          <t>[6.98556821551161, 14.167459222449484]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.215350306122303e-07</v>
+        <v>3.936386139269388e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>7.215350306122303e-07</v>
+        <v>3.936386139269388e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>8.620300300300489</v>
+        <v>9.201121121121332</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.051881881881906</v>
+        <v>-1.00798798798801</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.29248248248288</v>
+        <v>19.41023023023067</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1402370319067381</v>
+        <v>0.1143664286208084</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1402370319067381</v>
+        <v>0.1143664286208084</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.74393711728407</v>
+        <v>6.174490640934735</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.4773844345316949, 12.965258669099835]</t>
+          <t>[-1.3464854709864813, 13.695466752855951]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1161430144636921</v>
+        <v>0.1051861796531293</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1161430144636921</v>
+        <v>0.1051861796531293</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.855474531674315, -0.8553685703467702]</t>
+          <t>[-4.679369237779392, -0.9308422677303079]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0061427384367303</v>
+        <v>0.004220257505968217</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0061427384367303</v>
+        <v>0.004220257505968217</v>
       </c>
       <c r="T5" t="n">
-        <v>10.00815211422388</v>
+        <v>10.45253156047906</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.107792123570283, 13.908512104877476]</t>
+          <t>[6.488048528448685, 14.417014592509426]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.245638852402479e-06</v>
+        <v>3.25288913383126e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>5.245638852402479e-06</v>
+        <v>3.25288913383126e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>11.64766766766793</v>
+        <v>11.52724724724751</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.489169169169246</v>
+        <v>3.825185185185272</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.80616616616661</v>
+        <v>19.22930930930976</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1356685174909376</v>
+        <v>0.1066468800218204</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1356685174909376</v>
+        <v>0.1066468800218204</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.535645790657397</v>
+        <v>6.478242326414515</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.316958609841624, 12.388250191156418]</t>
+          <t>[-0.6047889636103037, 13.561273616439333]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1107147285999022</v>
+        <v>0.07205174516993962</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1107147285999022</v>
+        <v>0.07205174516993962</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.80510575275485</v>
+        <v>3.08813211794312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.7988957489685475, 0.18868424345884716]</t>
+          <t>[1.578658170272349, 4.597606065613891]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.06559877788106472</v>
+        <v>0.0001599876982683046</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06559877788106472</v>
+        <v>0.0001599876982683046</v>
       </c>
       <c r="T6" t="n">
-        <v>9.669114259019157</v>
+        <v>10.37260257610723</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.940438782879193, 13.39778973515912]</t>
+          <t>[6.2444876759470525, 14.500717476267408]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.364061297446042e-06</v>
+        <v>7.511578462349178e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.364061297446042e-06</v>
+        <v>7.511578462349178e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.44242242242268</v>
+        <v>13.12968968968999</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.769669669669689</v>
+        <v>6.926686686686848</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.65451451451504</v>
+        <v>19.33269269269314</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2057028763322015</v>
+        <v>0.1228062399297913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2057028763322015</v>
+        <v>0.1228062399297913</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.453585121678167</v>
+        <v>5.468519059077748</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.325082456223516, 13.232252699579849]</t>
+          <t>[-1.8975995354215076, 12.834637653577003]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1648052649110705</v>
+        <v>0.1418305709880472</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1648052649110705</v>
+        <v>0.1418305709880472</v>
       </c>
       <c r="P7" t="n">
-        <v>2.798816277972889</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.2201316173686534, 5.817764173314432]</t>
+          <t>[-0.5346053564667317, 5.629079929855585]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06839000452988242</v>
+        <v>0.1029177240088897</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06839000452988242</v>
+        <v>0.1029177240088897</v>
       </c>
       <c r="T7" t="n">
-        <v>10.42501013564349</v>
+        <v>10.27759778912196</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.182990880510614, 14.667029390776358]</t>
+          <t>[6.526210812696688, 14.028984765547223]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.087156011436718e-05</v>
+        <v>1.612042596965679e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.087156011436718e-05</v>
+        <v>1.612042596965679e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>14.21323323323355</v>
+        <v>15.35243243243279</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.898518518518561</v>
+        <v>2.68796796796803</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.52794794794853</v>
+        <v>28.01689689689755</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.206472830986258</v>
+        <v>0.1868113990027263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.206472830986258</v>
+        <v>0.1868113990027263</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.918055452028842</v>
+        <v>5.811492107120861</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.531866390159344, 14.367977294217027]</t>
+          <t>[-2.33385754459718, 13.956841758838902]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.165234282214096</v>
+        <v>0.1576322916770871</v>
       </c>
       <c r="O8" t="n">
-        <v>0.165234282214096</v>
+        <v>0.1576322916770871</v>
       </c>
       <c r="P8" t="n">
-        <v>2.924605773612119</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.018868424345884094, 5.830343122878355]</t>
+          <t>[-0.3018947895341544, 5.874369446352086]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04859210498784639</v>
+        <v>0.07584834250993411</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04859210498784639</v>
+        <v>0.07584834250993411</v>
       </c>
       <c r="T8" t="n">
-        <v>11.54067471067984</v>
+        <v>10.71103175304052</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.964405801543819, 16.116943619815856]</t>
+          <t>[6.315540378154505, 15.106523127926536]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.061795825435979e-06</v>
+        <v>1.248798256159311e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>7.061795825435979e-06</v>
+        <v>1.248798256159311e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>13.70012012012043</v>
+        <v>14.37029029029062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.84720720720725</v>
+        <v>1.679979979980018</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.5530330330336</v>
+        <v>27.06060060060123</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.138971635863864</v>
+        <v>0.06668797728669928</v>
       </c>
       <c r="I9" t="n">
-        <v>0.138971635863864</v>
+        <v>0.06668797728669928</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.564253971383422</v>
+        <v>6.984884024885025</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.60994575728372, 12.738453700050565]</t>
+          <t>[-0.5974094374307253, 14.567177487200775]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1252650058281</v>
+        <v>0.07009466974519607</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1252650058281</v>
+        <v>0.07009466974519607</v>
       </c>
       <c r="P9" t="n">
-        <v>1.918289808498272</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.7170001251436169, 4.55357974214016]</t>
+          <t>[0.24528951649650033, 3.3397111092215823]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.149570891547929</v>
+        <v>0.02415399698355314</v>
       </c>
       <c r="S9" t="n">
-        <v>0.149570891547929</v>
+        <v>0.02415399698355314</v>
       </c>
       <c r="T9" t="n">
-        <v>10.17896716934632</v>
+        <v>11.35461564924714</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.2680108754825214, 14.089923463210123]</t>
+          <t>[7.210502495115316, 15.498728803378954]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.092200138083868e-06</v>
+        <v>1.609193148954802e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.092200138083868e-06</v>
+        <v>1.609193148954802e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>16.76992992993016</v>
+        <v>17.14600600600623</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.645145145145239</v>
+        <v>11.2385585585587</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.89471471471509</v>
+        <v>23.05345345345376</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06569976300470293</v>
+        <v>0.1818293536365412</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06569976300470293</v>
+        <v>0.1818293536365412</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.207195721628409</v>
+        <v>5.191327734609423</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.9337458163453487, 15.348137259602167]</t>
+          <t>[-2.2833590190068005, 12.666014488225647]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08131751668211185</v>
+        <v>0.16871657239579</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08131751668211185</v>
+        <v>0.16871657239579</v>
       </c>
       <c r="P10" t="n">
-        <v>2.446605690183042</v>
+        <v>2.207605648468504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 5.207685119464162]</t>
+          <t>[-0.9308422677303092, 5.346053564667317]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.08105118385446608</v>
+        <v>0.1634467022732435</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08105118385446608</v>
+        <v>0.1634467022732435</v>
       </c>
       <c r="T10" t="n">
-        <v>10.59510689402562</v>
+        <v>10.98032923845504</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.335586874164038, 14.8546269138872]</t>
+          <t>[7.056120159224125, 14.904538317685951]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.90163055577986e-06</v>
+        <v>1.081286607140797e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.90163055577986e-06</v>
+        <v>1.081286607140797e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>14.74014014014034</v>
+        <v>15.56108108108128</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.132072072072129</v>
+        <v>3.57808808808813</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.34820820820856</v>
+        <v>27.54407407407443</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02511826943232076</v>
+        <v>0.1244367734979475</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02511826943232076</v>
+        <v>0.1244367734979475</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.586746906048747</v>
+        <v>5.775580461348397</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.36883629888043856, 14.804657513217055]</t>
+          <t>[-1.407654926940717, 12.958815849637512]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03981916344000536</v>
+        <v>0.1123468461362056</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03981916344000536</v>
+        <v>0.1123468461362056</v>
       </c>
       <c r="P11" t="n">
-        <v>2.232763547596349</v>
+        <v>2.270500396288119</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.9371317425122703, 3.5283953526804277]</t>
+          <t>[-0.8553685703467702, 5.396369362923008]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001156152441164737</v>
+        <v>0.1504282306770115</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001156152441164737</v>
+        <v>0.1504282306770115</v>
       </c>
       <c r="T11" t="n">
-        <v>10.35069604285829</v>
+        <v>10.25143468552783</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.5282410442115335, 14.173151041505047]</t>
+          <t>[6.315694095295411, 14.187175275760241]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.002688186175661e-06</v>
+        <v>4.036528725048782e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.002688186175661e-06</v>
+        <v>4.036528725048782e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.56172172172194</v>
+        <v>15.32094094094114</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.58390390390405</v>
+        <v>3.385975975976018</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.53953953953982</v>
+        <v>27.25590590590626</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0538086868255222</v>
+        <v>0.1301520961468657</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0538086868255222</v>
+        <v>0.1301520961468657</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.215940494376405</v>
+        <v>5.986945615245073</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.46612182105979727, 14.898002809812608]</t>
+          <t>[-1.8854049133729731, 13.85929614386312]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06495049126449159</v>
+        <v>0.1325893333532211</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06495049126449159</v>
+        <v>0.1325893333532211</v>
       </c>
       <c r="P12" t="n">
-        <v>2.094395102393195</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 3.842869091778504]</t>
+          <t>[-0.6352369529781168, 4.949816653403738]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01997768367481978</v>
+        <v>0.1267280556429065</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01997768367481978</v>
+        <v>0.1267280556429065</v>
       </c>
       <c r="T12" t="n">
-        <v>10.54439143847849</v>
+        <v>10.64709123070423</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.426823040190978, 14.661959836765998]</t>
+          <t>[6.520972493306577, 14.773209968101884]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.430362596037241e-06</v>
+        <v>4.757496128826588e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>5.430362596037241e-06</v>
+        <v>4.757496128826588e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>16.09333333333356</v>
+        <v>15.7531931931934</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.375695695695832</v>
+        <v>5.090970970971036</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.81097097097129</v>
+        <v>26.41541541541576</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1449872435773845</v>
+        <v>0.2237227787488385</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1449872435773845</v>
+        <v>0.2237227787488385</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.913124913135348</v>
+        <v>5.236629459452352</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.830042463145805, 13.656292289416502]</t>
+          <t>[-3.221618362348101, 13.694877281252806]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1310305938452729</v>
+        <v>0.2188628361594034</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1310305938452729</v>
+        <v>0.2188628361594034</v>
       </c>
       <c r="P13" t="n">
-        <v>2.220184598032426</v>
+        <v>2.333395144107735</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.9056843686024632, 5.346053564667315]</t>
+          <t>[-0.8050527720910781, 5.471843060306547]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1594696617391402</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1594696617391402</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="T13" t="n">
-        <v>10.41889849823384</v>
+        <v>10.60557121292213</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.220229476879357, 14.617567519588324]</t>
+          <t>[6.367730109271455, 14.843412316572795]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.26209993168392e-06</v>
+        <v>8.038370278740103e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>9.26209993168392e-06</v>
+        <v>8.038370278740103e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.61005005005027</v>
+        <v>15.080800800801</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.600460460460512</v>
+        <v>3.097807807807847</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.61963963964002</v>
+        <v>27.06379379379414</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1284163208836772</v>
+        <v>0.07345436366112312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1284163208836772</v>
+        <v>0.07345436366112312</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.729597587337537</v>
+        <v>6.278139329476804</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8258284478039926, 13.285023622479066]</t>
+          <t>[-0.8946665304791921, 13.450945189432801]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1336657149213596</v>
+        <v>0.08471042772936399</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1336657149213596</v>
+        <v>0.08471042772936399</v>
       </c>
       <c r="P14" t="n">
-        <v>2.371131992799503</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7484474990534249, 5.490711484652431]</t>
+          <t>[-0.4276842851733855, 4.817737682982545]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1327991382052822</v>
+        <v>0.09878356796979082</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1327991382052822</v>
+        <v>0.09878356796979082</v>
       </c>
       <c r="T14" t="n">
-        <v>9.790388097457015</v>
+        <v>10.00139468793505</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.853568806801817, 13.727207388112213]</t>
+          <t>[6.2085539269003895, 13.794235448969719]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.932552410190198e-06</v>
+        <v>3.244719856132505e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>8.932552410190198e-06</v>
+        <v>3.244719856132505e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>15.03011011011032</v>
+        <v>15.60910910910931</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.044684684684729</v>
+        <v>5.595265265265338</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.01553553553591</v>
+        <v>25.62295295295328</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_0_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_0_sawtooth_10_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02301193295792536</v>
+        <v>0.08551002654139728</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02301193295792536</v>
+        <v>0.08551002654139728</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.060592151256505</v>
+        <v>6.368865056394085</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.7273602421680092, 13.393824060345]</t>
+          <t>[-0.7203200701300201, 13.45805018291819]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0296996412860957</v>
+        <v>0.07706304391303642</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0296996412860957</v>
+        <v>0.07706304391303642</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.371105502467618</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.578684660604235, -0.16352634433100066]</t>
+          <t>[-2.9812110466497734, -0.012578949563922581]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02696124826939617</v>
+        <v>0.04816948331393545</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02696124826939617</v>
+        <v>0.04816948331393545</v>
       </c>
       <c r="T2" t="n">
-        <v>9.979234250362786</v>
+        <v>10.58088122297616</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.323523951203326, 13.634944549522247]</t>
+          <t>[6.460028686286186, 14.701733759666133]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.724877121356272e-06</v>
+        <v>5.186192236772413e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.724877121356272e-06</v>
+        <v>5.186192236772413e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.634394394394526</v>
+        <v>6.117957957958094</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6719919919920097</v>
+        <v>0.05141141141141059</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.59679679679704</v>
+        <v>12.18450450450478</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2635806660112034</v>
+        <v>0.2630040153880323</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2635806660112034</v>
+        <v>0.2630040153880323</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.487445569449578</v>
+        <v>4.451482533860941</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.6156169502062205, 11.590508089105377]</t>
+          <t>[-2.6339284194702106, 11.536893487192092]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2097545925011284</v>
+        <v>0.2122476837070169</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2097545925011284</v>
+        <v>0.2122476837070169</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.849105585896695</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.9749745525315845, 1.2767633807381937]</t>
+          <t>[-4.9498166534037376, 1.3270791789938867]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2397265129616635</v>
+        <v>0.2511813276406261</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2397265129616635</v>
+        <v>0.2511813276406261</v>
       </c>
       <c r="T3" t="n">
-        <v>9.551191717273273</v>
+        <v>9.619395964934363</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.615703162425007, 13.48668027212154]</t>
+          <t>[5.718885057963593, 13.519906871905132]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.333959439442367e-05</v>
+        <v>1.026129407599718e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.333959439442367e-05</v>
+        <v>1.026129407599718e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.598678678678858</v>
+        <v>7.403243243243406</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.246706706706822</v>
+        <v>-5.423903903904026</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.44406406406454</v>
+        <v>20.23039039039084</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07826808567034627</v>
+        <v>0.07956459280284123</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07826808567034627</v>
+        <v>0.07956459280284123</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.917558968587938</v>
+        <v>6.617374829225632</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.8755729792492701, 12.710690916425147]</t>
+          <t>[-1.1866593524852824, 14.421409010936546]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08615177569021548</v>
+        <v>0.0945562725767346</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08615177569021548</v>
+        <v>0.0945562725767346</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.239053022378311</v>
+        <v>-2.503210963220696</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.723395561253121, 0.24528951649649944]</t>
+          <t>[-4.9183692794939295, -0.08805264694746207]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07615437789616331</v>
+        <v>0.04253224228032892</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07615437789616331</v>
+        <v>0.04253224228032892</v>
       </c>
       <c r="T4" t="n">
-        <v>10.57651371898055</v>
+        <v>10.34168113653749</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.98556821551161, 14.167459222449484]</t>
+          <t>[6.3785252084916415, 14.304837064583335]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.936386139269388e-07</v>
+        <v>3.908655831219576e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.936386139269388e-07</v>
+        <v>3.908655831219576e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.201121121121332</v>
+        <v>10.2308708708711</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.00798798798801</v>
+        <v>0.3598798798798892</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.41023023023067</v>
+        <v>20.10186186186231</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1143664286208084</v>
+        <v>0.2760409829312467</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1143664286208084</v>
+        <v>0.2760409829312467</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.174490640934735</v>
+        <v>4.95318751227339</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.3464854709864813, 13.695466752855951]</t>
+          <t>[-2.8904406551103072, 12.796815679657087]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1051861796531293</v>
+        <v>0.2099461789664265</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1051861796531293</v>
+        <v>0.2099461789664265</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.80510575275485</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.679369237779392, -0.9308422677303079]</t>
+          <t>[-5.899527345479932, 0.3647895373537704]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.004220257505968217</v>
+        <v>0.08190712746874529</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004220257505968217</v>
+        <v>0.08190712746874529</v>
       </c>
       <c r="T5" t="n">
-        <v>10.45253156047906</v>
+        <v>10.07403619040554</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.488048528448685, 14.417014592509426]</t>
+          <t>[5.888713574865374, 14.259358805945705]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.25288913383126e-06</v>
+        <v>1.523646749035379e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25288913383126e-06</v>
+        <v>1.523646749035379e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>11.52724724724751</v>
+        <v>11.31051051051076</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.825185185185272</v>
+        <v>-1.490930930930965</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.22930930930976</v>
+        <v>24.11195195195249</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1066468800218204</v>
+        <v>0.2117480038114459</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1066468800218204</v>
+        <v>0.2117480038114459</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.478242326414515</v>
+        <v>5.324988983114892</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.6047889636103037, 13.561273616439333]</t>
+          <t>[-2.4100922148895716, 13.060070181119356]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.07205174516993962</v>
+        <v>0.1724102857938756</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07205174516993962</v>
+        <v>0.1724102857938756</v>
       </c>
       <c r="P6" t="n">
-        <v>3.08813211794312</v>
+        <v>2.861711025792505</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.578658170272349, 4.597606065613891]</t>
+          <t>[-0.037736848691769076, 5.7611589002767785]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001599876982683046</v>
+        <v>0.05292859341913791</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001599876982683046</v>
+        <v>0.05292859341913791</v>
       </c>
       <c r="T6" t="n">
-        <v>10.37260257610723</v>
+        <v>9.995028923352951</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.2444876759470525, 14.500717476267408]</t>
+          <t>[5.830930511149122, 14.15912733555678]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.511578462349178e-06</v>
+        <v>1.59318856483015e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>7.511578462349178e-06</v>
+        <v>1.59318856483015e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>13.12968968968999</v>
+        <v>13.98390390390422</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.926686686686848</v>
+        <v>2.133573573573617</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.33269269269314</v>
+        <v>25.83423423423481</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1228062399297913</v>
+        <v>0.2335295800751986</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1228062399297913</v>
+        <v>0.2335295800751986</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.468519059077748</v>
+        <v>5.118890972023748</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.8975995354215076, 12.834637653577003]</t>
+          <t>[-2.4749053084987995, 12.712687252546296]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1418305709880472</v>
+        <v>0.1813336259830294</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1418305709880472</v>
+        <v>0.1813336259830294</v>
       </c>
       <c r="P7" t="n">
-        <v>2.547237286694427</v>
+        <v>2.710763631025428</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5346053564667317, 5.629079929855585]</t>
+          <t>[-0.40881586082749966, 5.830343122878355]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1029177240088897</v>
+        <v>0.0869072166352991</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1029177240088897</v>
+        <v>0.0869072166352991</v>
       </c>
       <c r="T7" t="n">
-        <v>10.27759778912196</v>
+        <v>10.01790911333451</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.526210812696688, 14.028984765547223]</t>
+          <t>[5.832940363969383, 14.202877862699639]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.612042596965679e-06</v>
+        <v>1.66361503977086e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.612042596965679e-06</v>
+        <v>1.66361503977086e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>15.35243243243279</v>
+        <v>14.60084084084117</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.68796796796803</v>
+        <v>1.850810810810852</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.01689689689755</v>
+        <v>27.35087087087148</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1868113990027263</v>
+        <v>0.07355149175390485</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1868113990027263</v>
+        <v>0.07355149175390485</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.811492107120861</v>
+        <v>6.692325058439052</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.33385754459718, 13.956841758838902]</t>
+          <t>[-0.9414940644126855, 14.32614418129079]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1576322916770871</v>
+        <v>0.08423054346374093</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1576322916770871</v>
+        <v>0.08423054346374093</v>
       </c>
       <c r="P8" t="n">
-        <v>2.786237328408966</v>
+        <v>2.710763631025428</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.3018947895341544, 5.874369446352086]</t>
+          <t>[0.798763297309117, 4.622763964741738]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.07584834250993411</v>
+        <v>0.00647812901071454</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07584834250993411</v>
+        <v>0.00647812901071454</v>
       </c>
       <c r="T8" t="n">
-        <v>10.71103175304052</v>
+        <v>11.37311575706471</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.315540378154505, 15.106523127926536]</t>
+          <t>[7.336175699388716, 15.410055814740698]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.248798256159311e-05</v>
+        <v>9.483248055719429e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.248798256159311e-05</v>
+        <v>9.483248055719429e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>14.37029029029062</v>
+        <v>14.60084084084117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.679979979980018</v>
+        <v>6.786306306306458</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.06060060060123</v>
+        <v>22.41537537537588</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06668797728669928</v>
+        <v>0.1363261367627737</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06668797728669928</v>
+        <v>0.1363261367627737</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.984884024885025</v>
+        <v>6.031780610704649</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.5974094374307253, 14.567177487200775]</t>
+          <t>[-1.511891785539822, 13.57545300694912]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07009466974519607</v>
+        <v>0.1142952313019376</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07009466974519607</v>
+        <v>0.1142952313019376</v>
       </c>
       <c r="P9" t="n">
-        <v>1.792500312859041</v>
+        <v>1.86797401024258</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.24528951649650033, 3.3397111092215823]</t>
+          <t>[-0.6037895790683088, 4.3397375995534695]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02415399698355314</v>
+        <v>0.1349786209759032</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02415399698355314</v>
+        <v>0.1349786209759032</v>
       </c>
       <c r="T9" t="n">
-        <v>11.35461564924714</v>
+        <v>10.90206904509784</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.210502495115316, 15.498728803378954]</t>
+          <t>[6.705937583584088, 15.098200506611587]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.609193148954802e-06</v>
+        <v>4.220378520658485e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.609193148954802e-06</v>
+        <v>4.220378520658485e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.14600600600623</v>
+        <v>16.7945945945948</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.2385585585587</v>
+        <v>7.392492492492579</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.05345345345376</v>
+        <v>26.19669669669702</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1818293536365412</v>
+        <v>0.106311419538836</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1818293536365412</v>
+        <v>0.106311419538836</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.191327734609423</v>
+        <v>6.132401593155655</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.2833590190068005, 12.666014488225647]</t>
+          <t>[-1.4213771446972618, 13.686180331008572]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.16871657239579</v>
+        <v>0.1090020944259007</v>
       </c>
       <c r="O10" t="n">
-        <v>0.16871657239579</v>
+        <v>0.1090020944259007</v>
       </c>
       <c r="P10" t="n">
-        <v>2.207605648468504</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, 5.346053564667317]</t>
+          <t>[-0.6226580034141946, 4.786290309072738]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1634467022732435</v>
+        <v>0.1280528047571012</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1634467022732435</v>
+        <v>0.1280528047571012</v>
       </c>
       <c r="T10" t="n">
-        <v>10.98032923845504</v>
+        <v>11.07384143923013</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.056120159224125, 14.904538317685951]</t>
+          <t>[7.0570925303054075, 15.090590348154858]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.081286607140797e-06</v>
+        <v>1.433024030550456e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.081286607140797e-06</v>
+        <v>1.433024030550456e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>15.56108108108128</v>
+        <v>15.98118118118138</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.57808808808813</v>
+        <v>5.693893893893962</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.54407407407443</v>
+        <v>26.2684684684688</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1244367734979475</v>
+        <v>0.04209018170820145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1244367734979475</v>
+        <v>0.04209018170820145</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.775580461348397</v>
+        <v>6.636799485647709</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.407654926940717, 12.958815849637512]</t>
+          <t>[-0.08879439804092293, 13.36239336933634]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1123468461362056</v>
+        <v>0.0529717926755422</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1123468461362056</v>
+        <v>0.0529717926755422</v>
       </c>
       <c r="P11" t="n">
-        <v>2.270500396288119</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.8553685703467702, 5.396369362923008]</t>
+          <t>[0.6226580034141929, 3.9183427891620433]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1504282306770115</v>
+        <v>0.008008123163556036</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1504282306770115</v>
+        <v>0.008008123163556036</v>
       </c>
       <c r="T11" t="n">
-        <v>10.25143468552783</v>
+        <v>9.558373679174347</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.315694095295411, 14.187175275760241]</t>
+          <t>[5.938029264909261, 13.178718093439432]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.036528725048782e-06</v>
+        <v>3.17351190903814e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.036528725048782e-06</v>
+        <v>3.17351190903814e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.32094094094114</v>
+        <v>15.26346346346366</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.385975975976018</v>
+        <v>8.995395395395512</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.25590590590626</v>
+        <v>21.5315315315318</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1301520961468657</v>
+        <v>0.1591780715466158</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1301520961468657</v>
+        <v>0.1591780715466158</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.986945615245073</v>
+        <v>5.554961478256779</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.8854049133729731, 13.85929614386312]</t>
+          <t>[-2.1146805361608116, 13.224603492674369]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1325893333532211</v>
+        <v>0.1515728042929492</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1325893333532211</v>
+        <v>0.1515728042929492</v>
       </c>
       <c r="P12" t="n">
-        <v>2.157289850212811</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6352369529781168, 4.949816653403738]</t>
+          <t>[-0.8805264694746171, 5.270579867283777]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1267280556429065</v>
+        <v>0.1575026105212201</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1267280556429065</v>
+        <v>0.1575026105212201</v>
       </c>
       <c r="T12" t="n">
-        <v>10.64709123070423</v>
+        <v>9.44994409143457</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.520972493306577, 14.773209968101884]</t>
+          <t>[5.416355512935501, 13.48353266993364]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.757496128826588e-06</v>
+        <v>2.332625298651081e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.757496128826588e-06</v>
+        <v>2.332625298651081e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>15.7531931931934</v>
+        <v>15.55055055055074</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.090970970971036</v>
+        <v>3.851751751751799</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.41541541541576</v>
+        <v>27.24934934934969</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2237227787488385</v>
+        <v>0.1267198090595663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2237227787488385</v>
+        <v>0.1267198090595663</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.236629459452352</v>
+        <v>5.939453304355196</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.221618362348101, 13.694877281252806]</t>
+          <t>[-1.872084547571454, 13.750991156281845]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2188628361594034</v>
+        <v>0.1326684300869811</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2188628361594034</v>
+        <v>0.1326684300869811</v>
       </c>
       <c r="P13" t="n">
-        <v>2.333395144107735</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 5.471843060306547]</t>
+          <t>[-0.6100790538502698, 5.553606232472046]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.1132161748529221</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.1132161748529221</v>
       </c>
       <c r="T13" t="n">
-        <v>10.60557121292213</v>
+        <v>10.4559964700871</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.367730109271455, 14.843412316572795]</t>
+          <t>[6.393013865255779, 14.518979074918413]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.038370278740103e-06</v>
+        <v>4.98577996665972e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>8.038370278740103e-06</v>
+        <v>4.98577996665972e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.080800800801</v>
+        <v>14.49789789789808</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.097807807807847</v>
+        <v>2.77517517517521</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.06379379379414</v>
+        <v>26.22062062062095</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07345436366112312</v>
+        <v>0.08240797116221088</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07345436366112312</v>
+        <v>0.08240797116221088</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.278139329476804</v>
+        <v>6.014783521278757</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.8946665304791921, 13.450945189432801]</t>
+          <t>[-0.9642720741812472, 12.99383911673876]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.08471042772936399</v>
+        <v>0.0894389417440915</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08471042772936399</v>
+        <v>0.0894389417440915</v>
       </c>
       <c r="P14" t="n">
-        <v>2.19502669890458</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 4.817737682982545]</t>
+          <t>[-0.7736053981812709, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.09878356796979082</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09878356796979082</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="T14" t="n">
-        <v>10.00139468793505</v>
+        <v>9.412697854313546</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.2085539269003895, 13.794235448969719]</t>
+          <t>[5.686154622899499, 13.139241085727592]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.244719856132505e-06</v>
+        <v>6.874225711994697e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>3.244719856132505e-06</v>
+        <v>6.874225711994697e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>15.60910910910931</v>
+        <v>14.92852852852871</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.595265265265338</v>
+        <v>3.01441441441445</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.62295295295328</v>
+        <v>26.84264264264298</v>
       </c>
     </row>
   </sheetData>
